--- a/testcases/testcases.xlsx
+++ b/testcases/testcases.xlsx
@@ -1,26 +1,412 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851579CA-7DE7-4518-A3A2-1557AEB28C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Group 1  Main Hotel Search" sheetId="1" r:id="rId1"/>
+    <sheet name="Group 2 Navigation and Top Menu" sheetId="2" r:id="rId2"/>
+    <sheet name="Group 3 Deals or Special Offers" sheetId="3" r:id="rId3"/>
+    <sheet name="Group 4 Popular Destinations" sheetId="4" r:id="rId4"/>
+    <sheet name="Group 5 Footer" sheetId="5" r:id="rId5"/>
+    <sheet name="Group 6 Language and Currency" sheetId="6" r:id="rId6"/>
+    <sheet name="Group 7 Cross-Browser" sheetId="7" r:id="rId7"/>
+    <sheet name="Group 8 Cookies and Notificati" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Titile</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TC-SRCH-01</t>
+  </si>
+  <si>
+    <t>Successful search by city name</t>
+  </si>
+  <si>
+    <t>1. In the "Where to?" field, enter "Paris".
+2. Click the "Search" button.</t>
+  </si>
+  <si>
+    <t>The search results page opens, displaying hotels in Paris.</t>
+  </si>
+  <si>
+    <t>TC-SRCH-02</t>
+  </si>
+  <si>
+    <t>Search by selecting an option from the dropdown (Auto-suggest)</t>
+  </si>
+  <si>
+    <t>1. Start typing "London" in the "Where to?" field.
+2. Select "London, United Kingdom" from the dropdown list.
+3. Click "Search".</t>
+  </si>
+  <si>
+    <t>The field is populated with the selected value. The search is performed correctly for the chosen destination.</t>
+  </si>
+  <si>
+    <t>TC-SRCH-03</t>
+  </si>
+  <si>
+    <t>Search by a specific hotel name</t>
+  </si>
+  <si>
+    <t>1. In the "Where to?" field, enter a hotel name (e.g., "Radisson").
+2. Select a specific hotel from the list.
+3. Click "Search".</t>
+  </si>
+  <si>
+    <t>The page for that specific hotel opens, or it is the first result in the search results list.</t>
+  </si>
+  <si>
+    <t>TC-SRCH-04</t>
+  </si>
+  <si>
+    <t>Search with check-in/check-out dates specified</t>
+  </si>
+  <si>
+    <t>1. Fill in the "Where to?" field (e.g., "Berlin").
+2. In the calendar, select a check-in date (in 7 days).
+3. Select a check-out date (in 9 days).
+4. Click "Search".</t>
+  </si>
+  <si>
+    <t>The results show hotels available for the selected dates.</t>
+  </si>
+  <si>
+    <t>TC-SRCH-05</t>
+  </si>
+  <si>
+    <t>Search with number of guests and rooms specified</t>
+  </si>
+  <si>
+    <t>1. Fill in the "Where to?" field and dates.
+2. Click on the "Guests and rooms" field.
+3. Add 1 adult, 1 child (set age to 5 years), 1 room.
+4. Click "Done".
+5. Click "Search".</t>
+  </si>
+  <si>
+    <t>The results show hotels that can accommodate 2 guests (including 1 child aged 5) in 1 room.</t>
+  </si>
+  <si>
+    <t>TC-SRCH-06</t>
+  </si>
+  <si>
+    <t>Search for a business trip ("I'm traveling for work" checkbox)</t>
+  </si>
+  <si>
+    <t>1. Fill in all search fields.
+2. Check the "I'm traveling for work" box.
+3. Click "Search".</t>
+  </si>
+  <si>
+    <t>Results displayed are potentially more suitable for a business trip.</t>
+  </si>
+  <si>
+    <t>TC-SRCH-07</t>
+  </si>
+  <si>
+    <t>Negative test: Search with an empty "Where to?" field</t>
+  </si>
+  <si>
+    <t>1. Leave the "Where to?" field empty.
+2. Click "Search".</t>
+  </si>
+  <si>
+    <t>An error message appears (e.g., "Enter a destination"). The search is not performed.</t>
+  </si>
+  <si>
+    <t>TC-SRCH-08</t>
+  </si>
+  <si>
+    <t>Negative test: Search with a non-existent location</t>
+  </si>
+  <si>
+    <t>1. In the "Where to?" field, enter "NonExistentCity123".
+2. Click "Search".</t>
+  </si>
+  <si>
+    <t>A page opens with a message that nothing was found for your query, or suggestions are offered.</t>
+  </si>
+  <si>
+    <t>TC-SRCH-09</t>
+  </si>
+  <si>
+    <t>Negative test: Check-out date is earlier than check-in date</t>
+  </si>
+  <si>
+    <t>1. Set the check-in date to today.
+2. Set the check-out date to yesterday.
+3. Click "Search".</t>
+  </si>
+  <si>
+    <t>The system shows an error or automatically swaps the dates.</t>
+  </si>
+  <si>
+    <t>TC-NAV-01</t>
+  </si>
+  <si>
+    <t>Navigating to the "Stays" section</t>
+  </si>
+  <si>
+    <t>1. Click on the "Stays" tab in the top menu.</t>
+  </si>
+  <si>
+    <t>The "Stays" tab remains active. The hotel search form is displayed.</t>
+  </si>
+  <si>
+    <t>TC-NAV-02</t>
+  </si>
+  <si>
+    <t>Navigating to the "Flights" section</t>
+  </si>
+  <si>
+    <t>1. Click on the "Flights" tab.</t>
+  </si>
+  <si>
+    <t>The user is redirected to the /flights page or a flight search form opens.</t>
+  </si>
+  <si>
+    <t>TC-NAV-03</t>
+  </si>
+  <si>
+    <t>Navigating to the "Car Rentals" section</t>
+  </si>
+  <si>
+    <t>1. Click on the "Car Rentals" tab.</t>
+  </si>
+  <si>
+    <t>The user is redirected to the /cars page or a car rental search form opens.</t>
+  </si>
+  <si>
+    <t>TC-NAV-04</t>
+  </si>
+  <si>
+    <t>Navigating to the "Attractions" section</t>
+  </si>
+  <si>
+    <t>1. Click on the "Attractions" tab.</t>
+  </si>
+  <si>
+    <t>The user is redirected to the /attractions page or an attractions search form opens.</t>
+  </si>
+  <si>
+    <t>TC-NAV-05</t>
+  </si>
+  <si>
+    <t>Navigating to the "Airport Taxis" section</t>
+  </si>
+  <si>
+    <t>1. Click on the "Airport Taxis" tab.</t>
+  </si>
+  <si>
+    <t>The user is redirected to the /airport-taxis page or a taxi booking form opens.</t>
+  </si>
+  <si>
+    <t>TC-NAV-06</t>
+  </si>
+  <si>
+    <t>Click on the Booking.com logo</t>
+  </si>
+  <si>
+    <t>The user is redirected back to the homepage.</t>
+  </si>
+  <si>
+    <t>1. Navigate to any section (e.g., "Flights").
+2. Click on the logo in the header.</t>
+  </si>
+  <si>
+    <t>TC-OFFERS-01</t>
+  </si>
+  <si>
+    <t>TC-OFFERS-02</t>
+  </si>
+  <si>
+    <t>Click on one of the special offers</t>
+  </si>
+  <si>
+    <t>1. Scroll to the "Deals" or "Discounts" block.
+2. Click on any offer (image or button).</t>
+  </si>
+  <si>
+    <t>The user is redirected to a page with a selection of hotels matching the promotion.</t>
+  </si>
+  <si>
+    <t>The carousel scrolls, displaying the next set of offers.</t>
+  </si>
+  <si>
+    <t>1. In the deals block, click the "Right" arrow.</t>
+  </si>
+  <si>
+    <t>Navigation through the offers carousel</t>
+  </si>
+  <si>
+    <t>TC-DEST-01</t>
+  </si>
+  <si>
+    <t>Click on a popular city card</t>
+  </si>
+  <si>
+    <t>1. Scroll to the "Popular Destinations" block.
+2. Click on a city card (e.g., "Rome").</t>
+  </si>
+  <si>
+    <t>The search results page for hotels in the selected city opens.</t>
+  </si>
+  <si>
+    <t>TC-FOOT-01</t>
+  </si>
+  <si>
+    <t>TC-FOOT-02</t>
+  </si>
+  <si>
+    <t>TC-FOOT-03</t>
+  </si>
+  <si>
+    <t>Clicking on footer links (positive test)</t>
+  </si>
+  <si>
+    <t>1. Scroll to the footer.
+2. Click on any link (e.g., "Customer Service Help").</t>
+  </si>
+  <si>
+    <t>A new tab opens or the user is redirected to the corresponding page.</t>
+  </si>
+  <si>
+    <t>The user is redirected to the partner portal page for property registration.</t>
+  </si>
+  <si>
+    <t>The About Us page opens.</t>
+  </si>
+  <si>
+    <t>1. Find the "For Property Owners" or "List your property" link in the footer.
+2. Click on it.</t>
+  </si>
+  <si>
+    <t>1. Find the "About Booking.com" link in the footer.
+2. Click on it.</t>
+  </si>
+  <si>
+    <t>Presence and click on "For Property Owners" link</t>
+  </si>
+  <si>
+    <t>Presence and click on "About us" link</t>
+  </si>
+  <si>
+    <t>TC-LANG-01</t>
+  </si>
+  <si>
+    <t>Changing the interface language</t>
+  </si>
+  <si>
+    <t>1. Click on the language/currency selection button in the header.
+2. In the dropdown menu, select a different language (e.g., "English").
+3. Wait for the page to reload.</t>
+  </si>
+  <si>
+    <t>TC-CURR-01</t>
+  </si>
+  <si>
+    <t>Changing the currency</t>
+  </si>
+  <si>
+    <t>1. Click on the language/currency selection button.
+2. In the dropdown menu, select a different currency (e.g., "USD - US Dollar").
+3. Wait for the page to reload.</t>
+  </si>
+  <si>
+    <t>The site interface is fully translated into the selected language.</t>
+  </si>
+  <si>
+    <t>Prices on all page elements (deals, popular destinations) are displayed in the selected currency.</t>
+  </si>
+  <si>
+    <t>TC-LAYOUT-01</t>
+  </si>
+  <si>
+    <t>TC-LAYOUT-02</t>
+  </si>
+  <si>
+    <t>Display on a mobile device</t>
+  </si>
+  <si>
+    <t>1. Open the site in mobile Chrome/Safari.
+2. Check the display of all key elements.</t>
+  </si>
+  <si>
+    <t>Responsiveness when resizing the window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the site in a Desktop browser.
+2. Gradually decrease the browser window width.	</t>
+  </si>
+  <si>
+    <t>The site is displayed correctly, elements are not cut off. The search form is adapted.</t>
+  </si>
+  <si>
+    <t>The content adapts correctly to the new size; no horizontal scrollbar appears.</t>
+  </si>
+  <si>
+    <t>TC-COOKIE-01</t>
+  </si>
+  <si>
+    <t>TC-COOKIE-02</t>
+  </si>
+  <si>
+    <t>Display and closing of the cookies notification</t>
+  </si>
+  <si>
+    <t>Display of the "Best Price" notification</t>
+  </si>
+  <si>
+    <t>1. On the first visit to the site, wait for the cookies banner to appear.
+2. Click the "Accept" or "X" button.</t>
+  </si>
+  <si>
+    <t>1. Upon visiting the site, check for the "Book on our site..." banner.</t>
+  </si>
+  <si>
+    <t>The notification disappears. Cookie settings are saved.</t>
+  </si>
+  <si>
+    <t>The banner is displayed. When clicking "X", it closes.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +414,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +457,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +784,1178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" customWidth="1"/>
+    <col min="5" max="5" width="91.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDBE41-5616-4A0E-B181-9C0CC052AA33}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" customWidth="1"/>
+    <col min="5" max="5" width="91.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9D6D3E-B79D-4733-9E9D-60ED3131D6D6}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" customWidth="1"/>
+    <col min="5" max="5" width="91.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9458244F-B1FC-4E54-BF74-E1C640BF94E4}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" customWidth="1"/>
+    <col min="5" max="5" width="91.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FBAC4F-6AC4-4ADB-B4B4-5E727A4D488C}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" customWidth="1"/>
+    <col min="5" max="5" width="91.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E7F48F-F1C4-4586-8E41-6D630C61C9B8}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" customWidth="1"/>
+    <col min="5" max="5" width="91.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADC1700-7036-4DC5-8BA9-950FED30932C}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" customWidth="1"/>
+    <col min="5" max="5" width="91.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C1FDEA-71A6-4825-8298-458E16A51F06}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" customWidth="1"/>
+    <col min="5" max="5" width="91.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcases/testcases.xlsx
+++ b/testcases/testcases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851579CA-7DE7-4518-A3A2-1557AEB28C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A3A0A-5DE2-441D-A10A-09DEF9D06CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1  Main Hotel Search" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="119">
   <si>
     <t>№</t>
   </si>
@@ -400,6 +400,24 @@
   </si>
   <si>
     <t>The banner is displayed. When clicking "X", it closes.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Autotest's name</t>
+  </si>
+  <si>
+    <t>test_search_only_city</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>How to run</t>
+  </si>
+  <si>
+    <t>pytest -k test_search_only_city -sv</t>
   </si>
 </sst>
 </file>
@@ -449,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -472,11 +490,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -504,6 +533,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,9 +833,12 @@
     <col min="3" max="3" width="36.1796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="48.7265625" customWidth="1"/>
     <col min="5" max="5" width="91.26953125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="11"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -816,8 +854,17 @@
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="F1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -833,8 +880,17 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="F2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -851,7 +907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -868,7 +924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -885,7 +941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -902,7 +958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -919,7 +975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -936,7 +992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -953,7 +1009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1828,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C1FDEA-71A6-4825-8298-458E16A51F06}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/testcases/testcases.xlsx
+++ b/testcases/testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A3A0A-5DE2-441D-A10A-09DEF9D06CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D90FC8E-75FF-4FE5-9AE2-E2360473BFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="125">
   <si>
     <t>№</t>
   </si>
@@ -418,6 +418,31 @@
   </si>
   <si>
     <t>pytest -k test_search_only_city -sv</t>
+  </si>
+  <si>
+    <t>TC-SRCH-10</t>
+  </si>
+  <si>
+    <t>Recent searches</t>
+  </si>
+  <si>
+    <t>1. In the "Where to?" field, enter "Belgrade".
+2. Click "Search"
+3. In the "Where to?" field, enter "Moscow".
+4. Click "Search"
+5. In the "Where to?" field, enter "Hamburg".
+6. Click "Search"
+7. Click "Where to go" field
+8. Choose "Belgrade" from the dropdown list</t>
+  </si>
+  <si>
+    <t>The search results page opens, displaying hotels in Belgrade.</t>
+  </si>
+  <si>
+    <t>test_dropdown_click</t>
+  </si>
+  <si>
+    <t>pytest -k test_dropdown_click -sv</t>
   </si>
 </sst>
 </file>
@@ -453,7 +478,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,6 +570,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -864,47 +914,56 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="3" spans="1:8" s="16" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -1024,6 +1083,23 @@
       </c>
       <c r="E10" s="5" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
